--- a/media/temp/1/group_p19_1.xlsx
+++ b/media/temp/1/group_p19_1.xlsx
@@ -507,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:H7"/>
@@ -551,7 +551,7 @@
     <row r="4" ht="19.7" customHeight="1" s="6">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>За период с 01.05.2023 по 31.05.2023 г.</t>
+          <t>За период с 21.04.2023 по 20.05.2023 г.</t>
         </is>
       </c>
     </row>
@@ -620,22 +620,22 @@
       </c>
       <c r="B8" s="11" t="inlineStr">
         <is>
-          <t>ПЕТРОВ РУСТАМ ПЕТРОВИЧ</t>
+          <t>ПЛОХОТНИКОВ МИХАИЛ ГРИГОРЬЕВИЧ</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>16.10.1987</t>
+          <t>29.06.1976</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>Тюменская обл, м.р-н Тюменский, с.п. Ембаевское, с Ембаево, у Артямова д.8</t>
+          <t>625014, Тюменская обл, Тюмень г, Вересковая ул, дом № 9, квартира 149</t>
         </is>
       </c>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>24.05.2023</t>
+          <t>23.04.2023</t>
         </is>
       </c>
       <c r="F8" s="10" t="inlineStr">
@@ -700,22 +700,18 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>АСТАФЬЕВ ВАЛЕРИЙ АЛЕКСАНДРОВИЧ</t>
+          <t>ДОРОХИН РОМАН ЮРЬЕВИЧ</t>
         </is>
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>12.01.1981</t>
-        </is>
-      </c>
-      <c r="D10" s="12" t="inlineStr">
-        <is>
-          <t>625034, Тюменская обл, Тюмень г, Камчатская ул, дом № 2, квартира 234</t>
-        </is>
-      </c>
+          <t>29.01.1989</t>
+        </is>
+      </c>
+      <c r="D10" s="12" t="inlineStr"/>
       <c r="E10" s="10" t="inlineStr">
         <is>
-          <t>29.05.2023</t>
+          <t>03.05.2023</t>
         </is>
       </c>
       <c r="F10" s="10" t="inlineStr">
@@ -725,7 +721,7 @@
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
-          <t>ПОЛИОРГАННАЯ НЕДОСТАТОЧНОСТЬ</t>
+          <t>ОСТРАЯ СЕРДЕЧНАЯ НЕДОСТАТОЧНОСТЬ</t>
         </is>
       </c>
       <c r="H10" s="11" t="inlineStr">
@@ -740,18 +736,22 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>ДОРОХИН РОМАН ЮРЬЕВИЧ</t>
+          <t>МАЗУЛЬ ЮРИЙ ВЛАДИМИРОВИЧ</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>29.01.1989</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr"/>
+          <t>31.07.1962</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>625001, Тюменская обл, г Тюмень, ул Ямская, д. 52, кв. 19</t>
+        </is>
+      </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>03.05.2023</t>
+          <t>17.05.2023</t>
         </is>
       </c>
       <c r="F11" s="10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>ОСТРАЯ СЕРДЕЧНАЯ НЕДОСТАТОЧНОСТЬ</t>
+          <t>ЛЕГОЧНАЯ СЕРДЕЧНАЯ НЕДОСТАТОЧНОСТЬ</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
@@ -776,22 +776,22 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>БУРКОВА ИРИНА ВЯЧЕСЛАВОВНА</t>
+          <t>СТАРОДУБЦЕВ МАКСИМ ВАЛЕРЬЕВИЧ</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>11.02.1980</t>
+          <t>01.05.1991</t>
         </is>
       </c>
       <c r="D12" s="12" t="inlineStr">
         <is>
-          <t>625053, Тюменская обл, г Тюмень, ул Станционная, д. 38б, кв. 92</t>
+          <t>620143, Свердловская обл, г Екатеринбург, ул Красных борцов, д. 15, кв. 50</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>23.05.2023</t>
+          <t>20.05.2023</t>
         </is>
       </c>
       <c r="F12" s="10" t="inlineStr">
@@ -801,250 +801,10 @@
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>ПОЛИОРГАННАЯ НЕДОСТАТОЧНОСТЬ</t>
+          <t>ЛЕГОЧНАЯ СЕРДЕЧНАЯ НЕДОСТАТОЧНОСТЬ</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
-        <is>
-          <t>СКОРАЯ ПОМОЩЬ</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="65" customHeight="1" s="6">
-      <c r="A13" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>МАЗУЛЬ ЮРИЙ ВЛАДИМИРОВИЧ</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>31.07.1962</t>
-        </is>
-      </c>
-      <c r="D13" s="12" t="inlineStr">
-        <is>
-          <t>625001, Тюменская обл, г Тюмень, ул Ямская, д. 52, кв. 19</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>17.05.2023</t>
-        </is>
-      </c>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Экстренная</t>
-        </is>
-      </c>
-      <c r="G13" s="11" t="inlineStr">
-        <is>
-          <t>ЛЕГОЧНАЯ СЕРДЕЧНАЯ НЕДОСТАТОЧНОСТЬ</t>
-        </is>
-      </c>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>СКОРАЯ ПОМОЩЬ</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="65" customHeight="1" s="6">
-      <c r="A14" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B14" s="11" t="inlineStr">
-        <is>
-          <t>БАЙРАМОВ НУРУЛЛАХ ДЖАМАЛ ОГЛЫ</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>07.12.1958</t>
-        </is>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>625001, Тюменская обл, Тюмень г, Садовая ул, дом № 70</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>26.05.2023</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Экстренная</t>
-        </is>
-      </c>
-      <c r="G14" s="11" t="inlineStr">
-        <is>
-          <t>ДИСЛОКАЦИЯ МОЗГА</t>
-        </is>
-      </c>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>СКОРАЯ ПОМОЩЬ</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="65" customHeight="1" s="6">
-      <c r="A15" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B15" s="11" t="inlineStr">
-        <is>
-          <t>СТАРОДУБЦЕВ МАКСИМ ВАЛЕРЬЕВИЧ</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>01.05.1991</t>
-        </is>
-      </c>
-      <c r="D15" s="12" t="inlineStr">
-        <is>
-          <t>620143, Свердловская обл, г Екатеринбург, ул Красных борцов, д. 15, кв. 50</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>20.05.2023</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Экстренная</t>
-        </is>
-      </c>
-      <c r="G15" s="11" t="inlineStr">
-        <is>
-          <t>ЛЕГОЧНАЯ СЕРДЕЧНАЯ НЕДОСТАТОЧНОСТЬ</t>
-        </is>
-      </c>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>СКОРАЯ ПОМОЩЬ</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="65" customHeight="1" s="6">
-      <c r="A16" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B16" s="11" t="inlineStr">
-        <is>
-          <t>ФЕДОРОВ АЛЕКСАНДР ГРИГОРЬЕВИЧ</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>04.12.1980</t>
-        </is>
-      </c>
-      <c r="D16" s="12" t="inlineStr">
-        <is>
-          <t>СНТ Вишенка</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>23.05.2023</t>
-        </is>
-      </c>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Экстренная</t>
-        </is>
-      </c>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>СЕПСИС</t>
-        </is>
-      </c>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>СКОРАЯ ПОМОЩЬ</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="65" customHeight="1" s="6">
-      <c r="A17" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B17" s="11" t="inlineStr">
-        <is>
-          <t>ТИХОМИРОВА ЕЛЕНА ВИКТОРОВНА</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>16.08.1972</t>
-        </is>
-      </c>
-      <c r="D17" s="12" t="inlineStr">
-        <is>
-          <t>625051, Тюменская обл, Тюмень г, Пермякова ул, дом № 53, квартира 102</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>30.05.2023</t>
-        </is>
-      </c>
-      <c r="F17" s="10" t="inlineStr">
-        <is>
-          <t>Экстренная</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>ДИСЛОКАЦИЯ МОЗГА</t>
-        </is>
-      </c>
-      <c r="H17" s="11" t="inlineStr">
-        <is>
-          <t>СКОРАЯ ПОМОЩЬ</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="65" customHeight="1" s="6">
-      <c r="A18" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B18" s="11" t="inlineStr">
-        <is>
-          <t>БАРЫШЕВ ВЛАДИМИР ОЛЕГОВИЧ</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>25.01.1989</t>
-        </is>
-      </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>625005, Тюменская обл, Тюмень г, Балтийская ул, дом № 27</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>31.05.2023</t>
-        </is>
-      </c>
-      <c r="F18" s="10" t="inlineStr">
-        <is>
-          <t>Экстренная</t>
-        </is>
-      </c>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>ОСТРАЯ СЕРДЕЧНАЯ НЕДОСТАТОЧНОСТЬ</t>
-        </is>
-      </c>
-      <c r="H18" s="11" t="inlineStr">
         <is>
           <t>СКОРАЯ ПОМОЩЬ</t>
         </is>
